--- a/excel/GBA_GD-DLB.xlsx
+++ b/excel/GBA_GD-DLB.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="19440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -508,250 +521,256 @@
     <t>Le Peillet, 2018</t>
   </si>
   <si>
+    <t>Case report/case series</t>
+  </si>
+  <si>
+    <t>patient died 10 months after AAE</t>
+  </si>
+  <si>
+    <t>1i</t>
+  </si>
+  <si>
+    <t>GD_DLB</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>clinically affected</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>ENST00000327247</t>
+  </si>
+  <si>
+    <t>NM_000157.3</t>
+  </si>
+  <si>
+    <t>1:155205634</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>g.9020A&gt;G</t>
+  </si>
+  <si>
+    <t>c.1226A&gt;G</t>
+  </si>
+  <si>
+    <t>p.Asn409Ser</t>
+  </si>
+  <si>
+    <t>p.Asn370Ser</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>missense</t>
+  </si>
+  <si>
+    <t>compound het (not confirmed)</t>
+  </si>
+  <si>
+    <t>1:155205518</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>g.9136G&gt;C</t>
+  </si>
+  <si>
+    <t>c.1342G&gt;C</t>
+  </si>
+  <si>
+    <t>p.Asp448His</t>
+  </si>
+  <si>
+    <t>p.Asp409His</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>tremor_other</t>
+  </si>
+  <si>
+    <t>Likely pathogenic</t>
+  </si>
+  <si>
+    <t>Pathogenic</t>
+  </si>
+  <si>
+    <t>Likely Pathogenic</t>
+  </si>
+  <si>
+    <t>Mild</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>0.02834, Ashkenazi Jewish</t>
+  </si>
+  <si>
+    <t>0.0003005, Admixed American</t>
+  </si>
+  <si>
+    <t>rs76763715</t>
+  </si>
+  <si>
+    <t>rs1064651</t>
+  </si>
+  <si>
+    <t>8294487, 14578207, 15146461, 16293621, 19217815, 19830760, 20980259, 20643691, 21472771, 22160715, 20980263, 21653695, 22592100, 22623374, 24020503, 23642305, 23277556, 24022302, 36130205</t>
+  </si>
+  <si>
+    <t>8294487, 14578207, 15146461, 16293621, 21472771, 21257328, 36776904</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>Choi, 2011</t>
   </si>
   <si>
+    <t>Other/mixed</t>
+  </si>
+  <si>
+    <t>sequencing of GBA1 gene</t>
+  </si>
+  <si>
+    <t>16i</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>hom</t>
+  </si>
+  <si>
+    <t>19i</t>
+  </si>
+  <si>
     <t>Lopez, 2016</t>
   </si>
   <si>
+    <t>Full GBA1 sequencing</t>
+  </si>
+  <si>
+    <t>6i</t>
+  </si>
+  <si>
+    <t>jewish ashkenazi</t>
+  </si>
+  <si>
+    <t>1:155210451</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>g.4202dupG</t>
+  </si>
+  <si>
+    <t>c.84dupG</t>
+  </si>
+  <si>
+    <t>p.Leu29Alafs*18</t>
+  </si>
+  <si>
+    <t>84GG</t>
+  </si>
+  <si>
+    <t>frameshift insertion/deletion/indel</t>
+  </si>
+  <si>
+    <t>UPDRS-III (off)</t>
+  </si>
+  <si>
+    <t>Weak voice_HP:0001621; Syncope_HP:0001279</t>
+  </si>
+  <si>
+    <t>Weak voice_HP:0001621</t>
+  </si>
+  <si>
+    <t>Severe (Null)</t>
+  </si>
+  <si>
+    <t>0.001149, Ashkenazi Jewish</t>
+  </si>
+  <si>
+    <t>rs387906315</t>
+  </si>
+  <si>
+    <t>9i</t>
+  </si>
+  <si>
+    <t>UPDRS-III (on)</t>
+  </si>
+  <si>
+    <t>17i</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>Lopez, 2020</t>
   </si>
   <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
     <t>Rosenblum, 2022</t>
   </si>
   <si>
-    <t>Case report/case series</t>
-  </si>
-  <si>
-    <t>Other/mixed</t>
-  </si>
-  <si>
     <t>Mutational screen</t>
   </si>
   <si>
-    <t>sequencing of GBA1 gene</t>
-  </si>
-  <si>
-    <t>Full GBA1 sequencing</t>
-  </si>
-  <si>
-    <t>WES</t>
-  </si>
-  <si>
-    <t>patient died 10 months after AAE</t>
-  </si>
-  <si>
-    <t>1i</t>
-  </si>
-  <si>
-    <t>16i</t>
-  </si>
-  <si>
-    <t>19i</t>
-  </si>
-  <si>
-    <t>6i</t>
-  </si>
-  <si>
-    <t>9i</t>
-  </si>
-  <si>
-    <t>17i</t>
-  </si>
-  <si>
     <t>8i</t>
   </si>
   <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>GD-DLB</t>
-  </si>
-  <si>
-    <t>jewish ashkenazi</t>
-  </si>
-  <si>
-    <t>CHE</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>ISR</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>clinically affected</t>
-  </si>
-  <si>
-    <t>GBA</t>
-  </si>
-  <si>
-    <t>ENST00000327247</t>
-  </si>
-  <si>
-    <t>NM_000157.3</t>
-  </si>
-  <si>
-    <t>1:155205634</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>g.9020A&gt;G</t>
-  </si>
-  <si>
-    <t>c.1226A&gt;G</t>
-  </si>
-  <si>
-    <t>p.Asn409Ser</t>
-  </si>
-  <si>
-    <t>p.Asn370Ser</t>
-  </si>
-  <si>
-    <t>het</t>
-  </si>
-  <si>
-    <t>hom</t>
-  </si>
-  <si>
-    <t>missense</t>
-  </si>
-  <si>
-    <t>compound het (not confirmed)</t>
-  </si>
-  <si>
-    <t>1:155205518</t>
-  </si>
-  <si>
-    <t>1:155210451</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>GC</t>
-  </si>
-  <si>
-    <t>g.9136G&gt;C</t>
-  </si>
-  <si>
-    <t>g.4202dupG</t>
-  </si>
-  <si>
-    <t>c.1342G&gt;C</t>
-  </si>
-  <si>
-    <t>c.84dupG</t>
-  </si>
-  <si>
-    <t>p.Asp448His</t>
-  </si>
-  <si>
-    <t>p.Leu29Alafs*18</t>
-  </si>
-  <si>
-    <t>p.Asp409His</t>
-  </si>
-  <si>
-    <t>84GG</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>frameshift insertion/deletion/indel</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>UPDRS-III (off)</t>
-  </si>
-  <si>
-    <t>UPDRS-III (on)</t>
-  </si>
-  <si>
-    <t>dementia</t>
-  </si>
-  <si>
-    <t>Weak voice_HP:0001621; Syncope_HP:0001279</t>
-  </si>
-  <si>
-    <t>tremor_other</t>
-  </si>
-  <si>
-    <t>Weak voice_HP:0001621</t>
-  </si>
-  <si>
-    <t>Likely pathogenic</t>
-  </si>
-  <si>
-    <t>Pathogenic</t>
-  </si>
-  <si>
-    <t>Likely Pathogenic</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>Severe (Null)</t>
-  </si>
-  <si>
-    <t>0.02834, Ashkenazi Jewish</t>
-  </si>
-  <si>
-    <t>0.0003005, Admixed American</t>
-  </si>
-  <si>
-    <t>0.001149, Ashkenazi Jewish</t>
-  </si>
-  <si>
-    <t>rs76763715</t>
-  </si>
-  <si>
-    <t>rs1064651</t>
-  </si>
-  <si>
-    <t>rs387906315</t>
-  </si>
-  <si>
-    <t>8294487, 14578207, 15146461, 16293621, 19217815, 19830760, 20980259, 20643691, 21472771, 22160715, 20980263, 21653695, 22592100, 22623374, 24020503, 23642305, 23277556, 24022302, 36130205</t>
-  </si>
-  <si>
-    <t>8294487, 14578207, 15146461, 16293621, 21472771, 21257328, 36776904</t>
-  </si>
-  <si>
-    <t>IN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,19 +778,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -794,9 +1150,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -804,11 +1402,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1091,17 +1741,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:FG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="11" max="11" width="11.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:163">
       <c r="A1" s="1" t="s">
@@ -1602,7 +2257,7 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D2">
         <v>-99</v>
@@ -1617,16 +2272,16 @@
         <v>-99</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1638,13 +2293,13 @@
         <v>-99</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R2">
         <v>-99</v>
@@ -1668,7 +2323,7 @@
         <v>-99</v>
       </c>
       <c r="Y2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z2">
         <v>62</v>
@@ -1695,364 +2350,364 @@
         <v>19</v>
       </c>
       <c r="AH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT2">
+        <v>-99</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH2">
+        <v>-99</v>
+      </c>
+      <c r="BI2">
+        <v>-99</v>
+      </c>
+      <c r="BJ2">
+        <v>-99</v>
+      </c>
+      <c r="BK2">
+        <v>-99</v>
+      </c>
+      <c r="BL2">
+        <v>-99</v>
+      </c>
+      <c r="BM2">
+        <v>-99</v>
+      </c>
+      <c r="BN2">
+        <v>-99</v>
+      </c>
+      <c r="BO2">
+        <v>-99</v>
+      </c>
+      <c r="BP2">
+        <v>-99</v>
+      </c>
+      <c r="BQ2">
+        <v>-99</v>
+      </c>
+      <c r="BR2">
+        <v>-99</v>
+      </c>
+      <c r="BS2">
+        <v>-99</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU2">
+        <v>-99</v>
+      </c>
+      <c r="BV2">
+        <v>-99</v>
+      </c>
+      <c r="BW2">
+        <v>-99</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>192</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="CA2">
+        <v>-99</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC2">
+        <v>-99</v>
+      </c>
+      <c r="CD2">
+        <v>-99</v>
+      </c>
+      <c r="CE2">
+        <v>-99</v>
+      </c>
+      <c r="CF2">
+        <v>-99</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CI2">
+        <v>-99</v>
+      </c>
+      <c r="CJ2">
+        <v>-99</v>
+      </c>
+      <c r="CK2">
+        <v>-99</v>
+      </c>
+      <c r="CL2">
+        <v>-99</v>
+      </c>
+      <c r="CM2">
+        <v>-99</v>
+      </c>
+      <c r="CN2">
+        <v>-99</v>
+      </c>
+      <c r="CO2">
+        <v>-99</v>
+      </c>
+      <c r="CP2">
+        <v>-99</v>
+      </c>
+      <c r="CQ2">
+        <v>-99</v>
+      </c>
+      <c r="CR2">
+        <v>-99</v>
+      </c>
+      <c r="CS2">
+        <v>-99</v>
+      </c>
+      <c r="CT2">
+        <v>-99</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CV2">
+        <v>-99</v>
+      </c>
+      <c r="CW2">
+        <v>-99</v>
+      </c>
+      <c r="CX2">
+        <v>-99</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA2">
+        <v>-99</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DC2">
+        <v>-99</v>
+      </c>
+      <c r="DD2">
+        <v>-99</v>
+      </c>
+      <c r="DE2">
+        <v>-99</v>
+      </c>
+      <c r="DF2">
+        <v>-99</v>
+      </c>
+      <c r="DG2">
+        <v>-99</v>
+      </c>
+      <c r="DH2">
+        <v>-99</v>
+      </c>
+      <c r="DI2">
+        <v>-99</v>
+      </c>
+      <c r="DJ2">
+        <v>-99</v>
+      </c>
+      <c r="DK2">
+        <v>-99</v>
+      </c>
+      <c r="DL2">
+        <v>-99</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DN2">
+        <v>-99</v>
+      </c>
+      <c r="DO2">
+        <v>-99</v>
+      </c>
+      <c r="DP2">
+        <v>-99</v>
+      </c>
+      <c r="DQ2">
+        <v>-99</v>
+      </c>
+      <c r="DR2">
+        <v>-99</v>
+      </c>
+      <c r="DS2">
+        <v>-99</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU2" t="s">
         <v>193</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="DV2">
+        <v>-99</v>
+      </c>
+      <c r="DW2">
+        <v>-99</v>
+      </c>
+      <c r="DX2">
+        <v>-99</v>
+      </c>
+      <c r="DY2">
+        <v>-99</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>194</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="EA2">
+        <v>-99</v>
+      </c>
+      <c r="EB2">
+        <v>-99</v>
+      </c>
+      <c r="EC2">
+        <v>-99</v>
+      </c>
+      <c r="ED2" t="s">
         <v>195</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="EE2" t="s">
         <v>196</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="EF2">
+        <v>-99</v>
+      </c>
+      <c r="EG2" t="s">
         <v>197</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="EH2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EI2">
+        <v>-99</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EL2">
+        <v>-99</v>
+      </c>
+      <c r="EM2" t="s">
         <v>198</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="EN2" t="s">
         <v>199</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="EO2">
+        <v>-99</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>196</v>
+      </c>
+      <c r="ER2">
+        <v>-99</v>
+      </c>
+      <c r="ES2" t="s">
         <v>200</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="ET2" t="s">
         <v>201</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="EU2">
+        <v>-99</v>
+      </c>
+      <c r="EV2" t="s">
         <v>202</v>
       </c>
-      <c r="AS2" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT2">
-        <v>-99</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>197</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BH2">
-        <v>-99</v>
-      </c>
-      <c r="BI2">
-        <v>-99</v>
-      </c>
-      <c r="BJ2">
-        <v>-99</v>
-      </c>
-      <c r="BK2">
-        <v>-99</v>
-      </c>
-      <c r="BL2">
-        <v>-99</v>
-      </c>
-      <c r="BM2">
-        <v>-99</v>
-      </c>
-      <c r="BN2">
-        <v>-99</v>
-      </c>
-      <c r="BO2">
-        <v>-99</v>
-      </c>
-      <c r="BP2">
-        <v>-99</v>
-      </c>
-      <c r="BQ2">
-        <v>-99</v>
-      </c>
-      <c r="BR2">
-        <v>-99</v>
-      </c>
-      <c r="BS2">
-        <v>-99</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU2">
-        <v>-99</v>
-      </c>
-      <c r="BV2">
-        <v>-99</v>
-      </c>
-      <c r="BW2">
-        <v>-99</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CA2">
-        <v>-99</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC2">
-        <v>-99</v>
-      </c>
-      <c r="CD2">
-        <v>-99</v>
-      </c>
-      <c r="CE2">
-        <v>-99</v>
-      </c>
-      <c r="CF2">
-        <v>-99</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI2">
-        <v>-99</v>
-      </c>
-      <c r="CJ2">
-        <v>-99</v>
-      </c>
-      <c r="CK2">
-        <v>-99</v>
-      </c>
-      <c r="CL2">
-        <v>-99</v>
-      </c>
-      <c r="CM2">
-        <v>-99</v>
-      </c>
-      <c r="CN2">
-        <v>-99</v>
-      </c>
-      <c r="CO2">
-        <v>-99</v>
-      </c>
-      <c r="CP2">
-        <v>-99</v>
-      </c>
-      <c r="CQ2">
-        <v>-99</v>
-      </c>
-      <c r="CR2">
-        <v>-99</v>
-      </c>
-      <c r="CS2">
-        <v>-99</v>
-      </c>
-      <c r="CT2">
-        <v>-99</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CV2">
-        <v>-99</v>
-      </c>
-      <c r="CW2">
-        <v>-99</v>
-      </c>
-      <c r="CX2">
-        <v>-99</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DA2">
-        <v>-99</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DC2">
-        <v>-99</v>
-      </c>
-      <c r="DD2">
-        <v>-99</v>
-      </c>
-      <c r="DE2">
-        <v>-99</v>
-      </c>
-      <c r="DF2">
-        <v>-99</v>
-      </c>
-      <c r="DG2">
-        <v>-99</v>
-      </c>
-      <c r="DH2">
-        <v>-99</v>
-      </c>
-      <c r="DI2">
-        <v>-99</v>
-      </c>
-      <c r="DJ2">
-        <v>-99</v>
-      </c>
-      <c r="DK2">
-        <v>-99</v>
-      </c>
-      <c r="DL2">
-        <v>-99</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DN2">
-        <v>-99</v>
-      </c>
-      <c r="DO2">
-        <v>-99</v>
-      </c>
-      <c r="DP2">
-        <v>-99</v>
-      </c>
-      <c r="DQ2">
-        <v>-99</v>
-      </c>
-      <c r="DR2">
-        <v>-99</v>
-      </c>
-      <c r="DS2">
-        <v>-99</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>223</v>
-      </c>
-      <c r="DV2">
-        <v>-99</v>
-      </c>
-      <c r="DW2">
-        <v>-99</v>
-      </c>
-      <c r="DX2">
-        <v>-99</v>
-      </c>
-      <c r="DY2">
-        <v>-99</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EA2">
-        <v>-99</v>
-      </c>
-      <c r="EB2">
-        <v>-99</v>
-      </c>
-      <c r="EC2">
-        <v>-99</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EF2">
-        <v>-99</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EI2">
-        <v>-99</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EL2">
-        <v>-99</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>230</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>231</v>
-      </c>
-      <c r="EO2">
-        <v>-99</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>228</v>
-      </c>
-      <c r="ER2">
-        <v>-99</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>233</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>234</v>
-      </c>
-      <c r="EU2">
-        <v>-99</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>236</v>
-      </c>
       <c r="EW2" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="EX2">
         <v>-99</v>
@@ -2067,16 +2722,16 @@
         <v>-99</v>
       </c>
       <c r="FB2" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC2" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="FD2">
         <v>-99</v>
       </c>
       <c r="FE2" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF2">
         <v>-99</v>
@@ -2090,13 +2745,13 @@
         <v>21742527</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>-99</v>
@@ -2111,13 +2766,13 @@
         <v>-99</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="J3">
         <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L3">
         <v>-99</v>
@@ -2129,13 +2784,13 @@
         <v>-99</v>
       </c>
       <c r="O3" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R3">
         <v>-99</v>
@@ -2159,7 +2814,7 @@
         <v>-99</v>
       </c>
       <c r="Y3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z3">
         <v>-99</v>
@@ -2186,353 +2841,353 @@
         <v>19</v>
       </c>
       <c r="AH3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ3" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT3">
+        <v>-99</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV3">
+        <v>-99</v>
+      </c>
+      <c r="AW3">
+        <v>-99</v>
+      </c>
+      <c r="AX3">
+        <v>-99</v>
+      </c>
+      <c r="AY3">
+        <v>-99</v>
+      </c>
+      <c r="AZ3">
+        <v>-99</v>
+      </c>
+      <c r="BA3">
+        <v>-99</v>
+      </c>
+      <c r="BB3">
+        <v>-99</v>
+      </c>
+      <c r="BC3">
+        <v>-99</v>
+      </c>
+      <c r="BD3">
+        <v>-99</v>
+      </c>
+      <c r="BE3">
+        <v>-99</v>
+      </c>
+      <c r="BF3">
+        <v>-99</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH3">
+        <v>-99</v>
+      </c>
+      <c r="BI3">
+        <v>-99</v>
+      </c>
+      <c r="BJ3">
+        <v>-99</v>
+      </c>
+      <c r="BK3">
+        <v>-99</v>
+      </c>
+      <c r="BL3">
+        <v>-99</v>
+      </c>
+      <c r="BM3">
+        <v>-99</v>
+      </c>
+      <c r="BN3">
+        <v>-99</v>
+      </c>
+      <c r="BO3">
+        <v>-99</v>
+      </c>
+      <c r="BP3">
+        <v>-99</v>
+      </c>
+      <c r="BQ3">
+        <v>-99</v>
+      </c>
+      <c r="BR3">
+        <v>-99</v>
+      </c>
+      <c r="BS3">
+        <v>-99</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU3">
+        <v>-99</v>
+      </c>
+      <c r="BV3">
+        <v>-99</v>
+      </c>
+      <c r="BW3">
+        <v>-99</v>
+      </c>
+      <c r="BX3">
+        <v>-99</v>
+      </c>
+      <c r="BY3">
+        <v>-99</v>
+      </c>
+      <c r="BZ3">
+        <v>-99</v>
+      </c>
+      <c r="CA3">
+        <v>-99</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC3">
+        <v>-99</v>
+      </c>
+      <c r="CD3">
+        <v>-99</v>
+      </c>
+      <c r="CE3">
+        <v>-99</v>
+      </c>
+      <c r="CF3">
+        <v>-99</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH3">
+        <v>-99</v>
+      </c>
+      <c r="CI3">
+        <v>-99</v>
+      </c>
+      <c r="CJ3">
+        <v>-99</v>
+      </c>
+      <c r="CK3">
+        <v>-99</v>
+      </c>
+      <c r="CL3">
+        <v>-99</v>
+      </c>
+      <c r="CM3">
+        <v>-99</v>
+      </c>
+      <c r="CN3">
+        <v>-99</v>
+      </c>
+      <c r="CO3">
+        <v>-99</v>
+      </c>
+      <c r="CP3">
+        <v>-99</v>
+      </c>
+      <c r="CQ3">
+        <v>-99</v>
+      </c>
+      <c r="CR3">
+        <v>-99</v>
+      </c>
+      <c r="CS3">
+        <v>-99</v>
+      </c>
+      <c r="CT3">
+        <v>-99</v>
+      </c>
+      <c r="CU3">
+        <v>-99</v>
+      </c>
+      <c r="CV3">
+        <v>-99</v>
+      </c>
+      <c r="CW3">
+        <v>-99</v>
+      </c>
+      <c r="CX3">
+        <v>-99</v>
+      </c>
+      <c r="CY3">
+        <v>-99</v>
+      </c>
+      <c r="CZ3">
+        <v>-99</v>
+      </c>
+      <c r="DA3">
+        <v>-99</v>
+      </c>
+      <c r="DB3">
+        <v>-99</v>
+      </c>
+      <c r="DC3">
+        <v>-99</v>
+      </c>
+      <c r="DD3">
+        <v>-99</v>
+      </c>
+      <c r="DE3">
+        <v>-99</v>
+      </c>
+      <c r="DF3">
+        <v>-99</v>
+      </c>
+      <c r="DG3">
+        <v>-99</v>
+      </c>
+      <c r="DH3">
+        <v>-99</v>
+      </c>
+      <c r="DI3">
+        <v>-99</v>
+      </c>
+      <c r="DJ3">
+        <v>-99</v>
+      </c>
+      <c r="DK3">
+        <v>-99</v>
+      </c>
+      <c r="DL3">
+        <v>-99</v>
+      </c>
+      <c r="DM3">
+        <v>-99</v>
+      </c>
+      <c r="DN3">
+        <v>-99</v>
+      </c>
+      <c r="DO3">
+        <v>-99</v>
+      </c>
+      <c r="DP3">
+        <v>-99</v>
+      </c>
+      <c r="DQ3">
+        <v>-99</v>
+      </c>
+      <c r="DR3">
+        <v>-99</v>
+      </c>
+      <c r="DS3">
+        <v>-99</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU3">
+        <v>-99</v>
+      </c>
+      <c r="DV3">
+        <v>-99</v>
+      </c>
+      <c r="DW3">
+        <v>-99</v>
+      </c>
+      <c r="DX3">
+        <v>-99</v>
+      </c>
+      <c r="DY3">
+        <v>-99</v>
+      </c>
+      <c r="DZ3">
+        <v>-99</v>
+      </c>
+      <c r="EA3">
+        <v>-99</v>
+      </c>
+      <c r="EB3">
+        <v>-99</v>
+      </c>
+      <c r="EC3">
+        <v>-99</v>
+      </c>
+      <c r="ED3" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="EE3">
+        <v>-99</v>
+      </c>
+      <c r="EF3">
+        <v>-99</v>
+      </c>
+      <c r="EG3" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="EH3">
+        <v>-99</v>
+      </c>
+      <c r="EI3">
+        <v>-99</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK3">
+        <v>-99</v>
+      </c>
+      <c r="EL3">
+        <v>-99</v>
+      </c>
+      <c r="EM3" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="EN3">
+        <v>-99</v>
+      </c>
+      <c r="EO3">
+        <v>-99</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ3">
+        <v>-99</v>
+      </c>
+      <c r="ER3">
+        <v>-99</v>
+      </c>
+      <c r="ES3" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT3">
-        <v>-99</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV3">
-        <v>-99</v>
-      </c>
-      <c r="AW3">
-        <v>-99</v>
-      </c>
-      <c r="AX3">
-        <v>-99</v>
-      </c>
-      <c r="AY3">
-        <v>-99</v>
-      </c>
-      <c r="AZ3">
-        <v>-99</v>
-      </c>
-      <c r="BA3">
-        <v>-99</v>
-      </c>
-      <c r="BB3">
-        <v>-99</v>
-      </c>
-      <c r="BC3">
-        <v>-99</v>
-      </c>
-      <c r="BD3">
-        <v>-99</v>
-      </c>
-      <c r="BE3">
-        <v>-99</v>
-      </c>
-      <c r="BF3">
-        <v>-99</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH3">
-        <v>-99</v>
-      </c>
-      <c r="BI3">
-        <v>-99</v>
-      </c>
-      <c r="BJ3">
-        <v>-99</v>
-      </c>
-      <c r="BK3">
-        <v>-99</v>
-      </c>
-      <c r="BL3">
-        <v>-99</v>
-      </c>
-      <c r="BM3">
-        <v>-99</v>
-      </c>
-      <c r="BN3">
-        <v>-99</v>
-      </c>
-      <c r="BO3">
-        <v>-99</v>
-      </c>
-      <c r="BP3">
-        <v>-99</v>
-      </c>
-      <c r="BQ3">
-        <v>-99</v>
-      </c>
-      <c r="BR3">
-        <v>-99</v>
-      </c>
-      <c r="BS3">
-        <v>-99</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU3">
-        <v>-99</v>
-      </c>
-      <c r="BV3">
-        <v>-99</v>
-      </c>
-      <c r="BW3">
-        <v>-99</v>
-      </c>
-      <c r="BX3">
-        <v>-99</v>
-      </c>
-      <c r="BY3">
-        <v>-99</v>
-      </c>
-      <c r="BZ3">
-        <v>-99</v>
-      </c>
-      <c r="CA3">
-        <v>-99</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC3">
-        <v>-99</v>
-      </c>
-      <c r="CD3">
-        <v>-99</v>
-      </c>
-      <c r="CE3">
-        <v>-99</v>
-      </c>
-      <c r="CF3">
-        <v>-99</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH3">
-        <v>-99</v>
-      </c>
-      <c r="CI3">
-        <v>-99</v>
-      </c>
-      <c r="CJ3">
-        <v>-99</v>
-      </c>
-      <c r="CK3">
-        <v>-99</v>
-      </c>
-      <c r="CL3">
-        <v>-99</v>
-      </c>
-      <c r="CM3">
-        <v>-99</v>
-      </c>
-      <c r="CN3">
-        <v>-99</v>
-      </c>
-      <c r="CO3">
-        <v>-99</v>
-      </c>
-      <c r="CP3">
-        <v>-99</v>
-      </c>
-      <c r="CQ3">
-        <v>-99</v>
-      </c>
-      <c r="CR3">
-        <v>-99</v>
-      </c>
-      <c r="CS3">
-        <v>-99</v>
-      </c>
-      <c r="CT3">
-        <v>-99</v>
-      </c>
-      <c r="CU3">
-        <v>-99</v>
-      </c>
-      <c r="CV3">
-        <v>-99</v>
-      </c>
-      <c r="CW3">
-        <v>-99</v>
-      </c>
-      <c r="CX3">
-        <v>-99</v>
-      </c>
-      <c r="CY3">
-        <v>-99</v>
-      </c>
-      <c r="CZ3">
-        <v>-99</v>
-      </c>
-      <c r="DA3">
-        <v>-99</v>
-      </c>
-      <c r="DB3">
-        <v>-99</v>
-      </c>
-      <c r="DC3">
-        <v>-99</v>
-      </c>
-      <c r="DD3">
-        <v>-99</v>
-      </c>
-      <c r="DE3">
-        <v>-99</v>
-      </c>
-      <c r="DF3">
-        <v>-99</v>
-      </c>
-      <c r="DG3">
-        <v>-99</v>
-      </c>
-      <c r="DH3">
-        <v>-99</v>
-      </c>
-      <c r="DI3">
-        <v>-99</v>
-      </c>
-      <c r="DJ3">
-        <v>-99</v>
-      </c>
-      <c r="DK3">
-        <v>-99</v>
-      </c>
-      <c r="DL3">
-        <v>-99</v>
-      </c>
-      <c r="DM3">
-        <v>-99</v>
-      </c>
-      <c r="DN3">
-        <v>-99</v>
-      </c>
-      <c r="DO3">
-        <v>-99</v>
-      </c>
-      <c r="DP3">
-        <v>-99</v>
-      </c>
-      <c r="DQ3">
-        <v>-99</v>
-      </c>
-      <c r="DR3">
-        <v>-99</v>
-      </c>
-      <c r="DS3">
-        <v>-99</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU3">
-        <v>-99</v>
-      </c>
-      <c r="DV3">
-        <v>-99</v>
-      </c>
-      <c r="DW3">
-        <v>-99</v>
-      </c>
-      <c r="DX3">
-        <v>-99</v>
-      </c>
-      <c r="DY3">
-        <v>-99</v>
-      </c>
-      <c r="DZ3">
-        <v>-99</v>
-      </c>
-      <c r="EA3">
-        <v>-99</v>
-      </c>
-      <c r="EB3">
-        <v>-99</v>
-      </c>
-      <c r="EC3">
-        <v>-99</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE3">
-        <v>-99</v>
-      </c>
-      <c r="EF3">
-        <v>-99</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>229</v>
-      </c>
-      <c r="EH3">
-        <v>-99</v>
-      </c>
-      <c r="EI3">
-        <v>-99</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK3">
-        <v>-99</v>
-      </c>
-      <c r="EL3">
-        <v>-99</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>230</v>
-      </c>
-      <c r="EN3">
-        <v>-99</v>
-      </c>
-      <c r="EO3">
-        <v>-99</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ3">
-        <v>-99</v>
-      </c>
-      <c r="ER3">
-        <v>-99</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>233</v>
-      </c>
       <c r="ET3">
         <v>-99</v>
       </c>
@@ -2540,7 +3195,7 @@
         <v>-99</v>
       </c>
       <c r="EV3" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="EW3">
         <v>-99</v>
@@ -2558,7 +3213,7 @@
         <v>-99</v>
       </c>
       <c r="FB3" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC3">
         <v>-99</v>
@@ -2567,7 +3222,7 @@
         <v>-99</v>
       </c>
       <c r="FE3" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF3">
         <v>-99</v>
@@ -2581,13 +3236,13 @@
         <v>21742527</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>-99</v>
@@ -2602,13 +3257,13 @@
         <v>-99</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="J4">
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L4">
         <v>-99</v>
@@ -2620,13 +3275,13 @@
         <v>-99</v>
       </c>
       <c r="O4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R4">
         <v>-99</v>
@@ -2650,7 +3305,7 @@
         <v>-99</v>
       </c>
       <c r="Y4" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z4">
         <v>-99</v>
@@ -2677,353 +3332,353 @@
         <v>19</v>
       </c>
       <c r="AH4" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT4">
+        <v>-99</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV4">
+        <v>-99</v>
+      </c>
+      <c r="AW4">
+        <v>-99</v>
+      </c>
+      <c r="AX4">
+        <v>-99</v>
+      </c>
+      <c r="AY4">
+        <v>-99</v>
+      </c>
+      <c r="AZ4">
+        <v>-99</v>
+      </c>
+      <c r="BA4">
+        <v>-99</v>
+      </c>
+      <c r="BB4">
+        <v>-99</v>
+      </c>
+      <c r="BC4">
+        <v>-99</v>
+      </c>
+      <c r="BD4">
+        <v>-99</v>
+      </c>
+      <c r="BE4">
+        <v>-99</v>
+      </c>
+      <c r="BF4">
+        <v>-99</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH4">
+        <v>-99</v>
+      </c>
+      <c r="BI4">
+        <v>-99</v>
+      </c>
+      <c r="BJ4">
+        <v>-99</v>
+      </c>
+      <c r="BK4">
+        <v>-99</v>
+      </c>
+      <c r="BL4">
+        <v>-99</v>
+      </c>
+      <c r="BM4">
+        <v>-99</v>
+      </c>
+      <c r="BN4">
+        <v>-99</v>
+      </c>
+      <c r="BO4">
+        <v>-99</v>
+      </c>
+      <c r="BP4">
+        <v>-99</v>
+      </c>
+      <c r="BQ4">
+        <v>-99</v>
+      </c>
+      <c r="BR4">
+        <v>-99</v>
+      </c>
+      <c r="BS4">
+        <v>-99</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU4">
+        <v>-99</v>
+      </c>
+      <c r="BV4">
+        <v>-99</v>
+      </c>
+      <c r="BW4">
+        <v>-99</v>
+      </c>
+      <c r="BX4">
+        <v>-99</v>
+      </c>
+      <c r="BY4">
+        <v>-99</v>
+      </c>
+      <c r="BZ4">
+        <v>-99</v>
+      </c>
+      <c r="CA4">
+        <v>-99</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC4">
+        <v>-99</v>
+      </c>
+      <c r="CD4">
+        <v>-99</v>
+      </c>
+      <c r="CE4">
+        <v>-99</v>
+      </c>
+      <c r="CF4">
+        <v>-99</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH4">
+        <v>-99</v>
+      </c>
+      <c r="CI4">
+        <v>-99</v>
+      </c>
+      <c r="CJ4">
+        <v>-99</v>
+      </c>
+      <c r="CK4">
+        <v>-99</v>
+      </c>
+      <c r="CL4">
+        <v>-99</v>
+      </c>
+      <c r="CM4">
+        <v>-99</v>
+      </c>
+      <c r="CN4">
+        <v>-99</v>
+      </c>
+      <c r="CO4">
+        <v>-99</v>
+      </c>
+      <c r="CP4">
+        <v>-99</v>
+      </c>
+      <c r="CQ4">
+        <v>-99</v>
+      </c>
+      <c r="CR4">
+        <v>-99</v>
+      </c>
+      <c r="CS4">
+        <v>-99</v>
+      </c>
+      <c r="CT4">
+        <v>-99</v>
+      </c>
+      <c r="CU4">
+        <v>-99</v>
+      </c>
+      <c r="CV4">
+        <v>-99</v>
+      </c>
+      <c r="CW4">
+        <v>-99</v>
+      </c>
+      <c r="CX4">
+        <v>-99</v>
+      </c>
+      <c r="CY4">
+        <v>-99</v>
+      </c>
+      <c r="CZ4">
+        <v>-99</v>
+      </c>
+      <c r="DA4">
+        <v>-99</v>
+      </c>
+      <c r="DB4">
+        <v>-99</v>
+      </c>
+      <c r="DC4">
+        <v>-99</v>
+      </c>
+      <c r="DD4">
+        <v>-99</v>
+      </c>
+      <c r="DE4">
+        <v>-99</v>
+      </c>
+      <c r="DF4">
+        <v>-99</v>
+      </c>
+      <c r="DG4">
+        <v>-99</v>
+      </c>
+      <c r="DH4">
+        <v>-99</v>
+      </c>
+      <c r="DI4">
+        <v>-99</v>
+      </c>
+      <c r="DJ4">
+        <v>-99</v>
+      </c>
+      <c r="DK4">
+        <v>-99</v>
+      </c>
+      <c r="DL4">
+        <v>-99</v>
+      </c>
+      <c r="DM4">
+        <v>-99</v>
+      </c>
+      <c r="DN4">
+        <v>-99</v>
+      </c>
+      <c r="DO4">
+        <v>-99</v>
+      </c>
+      <c r="DP4">
+        <v>-99</v>
+      </c>
+      <c r="DQ4">
+        <v>-99</v>
+      </c>
+      <c r="DR4">
+        <v>-99</v>
+      </c>
+      <c r="DS4">
+        <v>-99</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU4">
+        <v>-99</v>
+      </c>
+      <c r="DV4">
+        <v>-99</v>
+      </c>
+      <c r="DW4">
+        <v>-99</v>
+      </c>
+      <c r="DX4">
+        <v>-99</v>
+      </c>
+      <c r="DY4">
+        <v>-99</v>
+      </c>
+      <c r="DZ4">
+        <v>-99</v>
+      </c>
+      <c r="EA4">
+        <v>-99</v>
+      </c>
+      <c r="EB4">
+        <v>-99</v>
+      </c>
+      <c r="EC4">
+        <v>-99</v>
+      </c>
+      <c r="ED4" t="s">
         <v>195</v>
       </c>
-      <c r="AL4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="EE4">
+        <v>-99</v>
+      </c>
+      <c r="EF4">
+        <v>-99</v>
+      </c>
+      <c r="EG4" t="s">
         <v>197</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="EH4">
+        <v>-99</v>
+      </c>
+      <c r="EI4">
+        <v>-99</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK4">
+        <v>-99</v>
+      </c>
+      <c r="EL4">
+        <v>-99</v>
+      </c>
+      <c r="EM4" t="s">
         <v>198</v>
       </c>
-      <c r="AO4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="EN4">
+        <v>-99</v>
+      </c>
+      <c r="EO4">
+        <v>-99</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ4">
+        <v>-99</v>
+      </c>
+      <c r="ER4">
+        <v>-99</v>
+      </c>
+      <c r="ES4" t="s">
         <v>200</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT4">
-        <v>-99</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV4">
-        <v>-99</v>
-      </c>
-      <c r="AW4">
-        <v>-99</v>
-      </c>
-      <c r="AX4">
-        <v>-99</v>
-      </c>
-      <c r="AY4">
-        <v>-99</v>
-      </c>
-      <c r="AZ4">
-        <v>-99</v>
-      </c>
-      <c r="BA4">
-        <v>-99</v>
-      </c>
-      <c r="BB4">
-        <v>-99</v>
-      </c>
-      <c r="BC4">
-        <v>-99</v>
-      </c>
-      <c r="BD4">
-        <v>-99</v>
-      </c>
-      <c r="BE4">
-        <v>-99</v>
-      </c>
-      <c r="BF4">
-        <v>-99</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH4">
-        <v>-99</v>
-      </c>
-      <c r="BI4">
-        <v>-99</v>
-      </c>
-      <c r="BJ4">
-        <v>-99</v>
-      </c>
-      <c r="BK4">
-        <v>-99</v>
-      </c>
-      <c r="BL4">
-        <v>-99</v>
-      </c>
-      <c r="BM4">
-        <v>-99</v>
-      </c>
-      <c r="BN4">
-        <v>-99</v>
-      </c>
-      <c r="BO4">
-        <v>-99</v>
-      </c>
-      <c r="BP4">
-        <v>-99</v>
-      </c>
-      <c r="BQ4">
-        <v>-99</v>
-      </c>
-      <c r="BR4">
-        <v>-99</v>
-      </c>
-      <c r="BS4">
-        <v>-99</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU4">
-        <v>-99</v>
-      </c>
-      <c r="BV4">
-        <v>-99</v>
-      </c>
-      <c r="BW4">
-        <v>-99</v>
-      </c>
-      <c r="BX4">
-        <v>-99</v>
-      </c>
-      <c r="BY4">
-        <v>-99</v>
-      </c>
-      <c r="BZ4">
-        <v>-99</v>
-      </c>
-      <c r="CA4">
-        <v>-99</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC4">
-        <v>-99</v>
-      </c>
-      <c r="CD4">
-        <v>-99</v>
-      </c>
-      <c r="CE4">
-        <v>-99</v>
-      </c>
-      <c r="CF4">
-        <v>-99</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH4">
-        <v>-99</v>
-      </c>
-      <c r="CI4">
-        <v>-99</v>
-      </c>
-      <c r="CJ4">
-        <v>-99</v>
-      </c>
-      <c r="CK4">
-        <v>-99</v>
-      </c>
-      <c r="CL4">
-        <v>-99</v>
-      </c>
-      <c r="CM4">
-        <v>-99</v>
-      </c>
-      <c r="CN4">
-        <v>-99</v>
-      </c>
-      <c r="CO4">
-        <v>-99</v>
-      </c>
-      <c r="CP4">
-        <v>-99</v>
-      </c>
-      <c r="CQ4">
-        <v>-99</v>
-      </c>
-      <c r="CR4">
-        <v>-99</v>
-      </c>
-      <c r="CS4">
-        <v>-99</v>
-      </c>
-      <c r="CT4">
-        <v>-99</v>
-      </c>
-      <c r="CU4">
-        <v>-99</v>
-      </c>
-      <c r="CV4">
-        <v>-99</v>
-      </c>
-      <c r="CW4">
-        <v>-99</v>
-      </c>
-      <c r="CX4">
-        <v>-99</v>
-      </c>
-      <c r="CY4">
-        <v>-99</v>
-      </c>
-      <c r="CZ4">
-        <v>-99</v>
-      </c>
-      <c r="DA4">
-        <v>-99</v>
-      </c>
-      <c r="DB4">
-        <v>-99</v>
-      </c>
-      <c r="DC4">
-        <v>-99</v>
-      </c>
-      <c r="DD4">
-        <v>-99</v>
-      </c>
-      <c r="DE4">
-        <v>-99</v>
-      </c>
-      <c r="DF4">
-        <v>-99</v>
-      </c>
-      <c r="DG4">
-        <v>-99</v>
-      </c>
-      <c r="DH4">
-        <v>-99</v>
-      </c>
-      <c r="DI4">
-        <v>-99</v>
-      </c>
-      <c r="DJ4">
-        <v>-99</v>
-      </c>
-      <c r="DK4">
-        <v>-99</v>
-      </c>
-      <c r="DL4">
-        <v>-99</v>
-      </c>
-      <c r="DM4">
-        <v>-99</v>
-      </c>
-      <c r="DN4">
-        <v>-99</v>
-      </c>
-      <c r="DO4">
-        <v>-99</v>
-      </c>
-      <c r="DP4">
-        <v>-99</v>
-      </c>
-      <c r="DQ4">
-        <v>-99</v>
-      </c>
-      <c r="DR4">
-        <v>-99</v>
-      </c>
-      <c r="DS4">
-        <v>-99</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU4">
-        <v>-99</v>
-      </c>
-      <c r="DV4">
-        <v>-99</v>
-      </c>
-      <c r="DW4">
-        <v>-99</v>
-      </c>
-      <c r="DX4">
-        <v>-99</v>
-      </c>
-      <c r="DY4">
-        <v>-99</v>
-      </c>
-      <c r="DZ4">
-        <v>-99</v>
-      </c>
-      <c r="EA4">
-        <v>-99</v>
-      </c>
-      <c r="EB4">
-        <v>-99</v>
-      </c>
-      <c r="EC4">
-        <v>-99</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE4">
-        <v>-99</v>
-      </c>
-      <c r="EF4">
-        <v>-99</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>229</v>
-      </c>
-      <c r="EH4">
-        <v>-99</v>
-      </c>
-      <c r="EI4">
-        <v>-99</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK4">
-        <v>-99</v>
-      </c>
-      <c r="EL4">
-        <v>-99</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>230</v>
-      </c>
-      <c r="EN4">
-        <v>-99</v>
-      </c>
-      <c r="EO4">
-        <v>-99</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ4">
-        <v>-99</v>
-      </c>
-      <c r="ER4">
-        <v>-99</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>233</v>
-      </c>
       <c r="ET4">
         <v>-99</v>
       </c>
@@ -3031,7 +3686,7 @@
         <v>-99</v>
       </c>
       <c r="EV4" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="EW4">
         <v>-99</v>
@@ -3049,7 +3704,7 @@
         <v>-99</v>
       </c>
       <c r="FB4" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC4">
         <v>-99</v>
@@ -3058,7 +3713,7 @@
         <v>-99</v>
       </c>
       <c r="FE4" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF4">
         <v>-99</v>
@@ -3072,13 +3727,13 @@
         <v>27123476</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <v>-99</v>
@@ -3093,13 +3748,13 @@
         <v>-99</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3108,16 +3763,16 @@
         <v>-99</v>
       </c>
       <c r="N5" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O5" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R5">
         <v>-99</v>
@@ -3141,7 +3796,7 @@
         <v>-99</v>
       </c>
       <c r="Y5" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z5">
         <v>-99</v>
@@ -3168,82 +3823,82 @@
         <v>19</v>
       </c>
       <c r="AH5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK5" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="AL5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AM5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AN5" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AO5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="AP5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AQ5" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AR5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AS5" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="AT5">
         <v>-99</v>
       </c>
       <c r="AU5" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="AV5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AW5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AX5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AY5" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AZ5" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="BA5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BB5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="BC5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="BD5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="BE5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="BF5" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="BG5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BH5">
         <v>-99</v>
@@ -3282,7 +3937,7 @@
         <v>-99</v>
       </c>
       <c r="BT5" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="BU5">
         <v>-99</v>
@@ -3300,16 +3955,16 @@
         <v>-99</v>
       </c>
       <c r="BZ5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CA5">
         <v>-99</v>
       </c>
       <c r="CB5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CC5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="CD5">
         <v>36</v>
@@ -3321,19 +3976,19 @@
         <v>-99</v>
       </c>
       <c r="CG5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CH5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CI5">
         <v>-99</v>
       </c>
       <c r="CJ5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CK5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CL5">
         <v>-99</v>
@@ -3342,13 +3997,13 @@
         <v>-99</v>
       </c>
       <c r="CN5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CO5">
         <v>-99</v>
       </c>
       <c r="CP5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CQ5">
         <v>-99</v>
@@ -3363,10 +4018,10 @@
         <v>-99</v>
       </c>
       <c r="CU5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CV5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CW5">
         <v>-99</v>
@@ -3378,7 +4033,7 @@
         <v>-99</v>
       </c>
       <c r="CZ5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DA5">
         <v>-99</v>
@@ -3417,7 +4072,7 @@
         <v>-99</v>
       </c>
       <c r="DM5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DN5">
         <v>-99</v>
@@ -3426,19 +4081,19 @@
         <v>-99</v>
       </c>
       <c r="DP5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DQ5">
         <v>-99</v>
       </c>
       <c r="DR5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DS5">
         <v>-99</v>
       </c>
       <c r="DT5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DU5">
         <v>-99</v>
@@ -3450,16 +4105,16 @@
         <v>-99</v>
       </c>
       <c r="DX5" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="DY5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="DZ5" t="s">
         <v>85</v>
       </c>
       <c r="EA5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EB5">
         <v>-99</v>
@@ -3468,64 +4123,64 @@
         <v>-99</v>
       </c>
       <c r="ED5" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="EE5" t="s">
+        <v>196</v>
+      </c>
+      <c r="EF5">
+        <v>-99</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>196</v>
+      </c>
+      <c r="EI5">
+        <v>-99</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>196</v>
+      </c>
+      <c r="EL5">
+        <v>-99</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>198</v>
+      </c>
+      <c r="EN5" t="s">
         <v>228</v>
       </c>
-      <c r="EF5">
-        <v>-99</v>
-      </c>
-      <c r="EG5" t="s">
+      <c r="EO5">
+        <v>-99</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>196</v>
+      </c>
+      <c r="ER5">
+        <v>-99</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>200</v>
+      </c>
+      <c r="ET5" t="s">
         <v>229</v>
       </c>
-      <c r="EH5" t="s">
-        <v>228</v>
-      </c>
-      <c r="EI5">
-        <v>-99</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>228</v>
-      </c>
-      <c r="EL5">
-        <v>-99</v>
-      </c>
-      <c r="EM5" t="s">
+      <c r="EU5">
+        <v>-99</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>202</v>
+      </c>
+      <c r="EW5" t="s">
         <v>230</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>232</v>
-      </c>
-      <c r="EO5">
-        <v>-99</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>228</v>
-      </c>
-      <c r="ER5">
-        <v>-99</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>233</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>235</v>
-      </c>
-      <c r="EU5">
-        <v>-99</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>236</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>238</v>
       </c>
       <c r="EX5">
         <v>-99</v>
@@ -3540,7 +4195,7 @@
         <v>-99</v>
       </c>
       <c r="FB5" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC5">
         <v>-99</v>
@@ -3549,7 +4204,7 @@
         <v>-99</v>
       </c>
       <c r="FE5" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF5">
         <v>-99</v>
@@ -3563,13 +4218,13 @@
         <v>27123476</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E6">
         <v>-99</v>
@@ -3584,13 +4239,13 @@
         <v>-99</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3599,16 +4254,16 @@
         <v>-99</v>
       </c>
       <c r="N6" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O6" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R6">
         <v>-99</v>
@@ -3632,7 +4287,7 @@
         <v>-99</v>
       </c>
       <c r="Y6" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z6">
         <v>-99</v>
@@ -3659,46 +4314,46 @@
         <v>19</v>
       </c>
       <c r="AH6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI6" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ6" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="AL6" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AM6" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AN6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AO6" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="AP6" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AQ6" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AR6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AS6" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="AT6">
         <v>-99</v>
       </c>
       <c r="AU6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AV6">
         <v>-99</v>
@@ -3734,7 +4389,7 @@
         <v>-99</v>
       </c>
       <c r="BG6" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="BH6">
         <v>-99</v>
@@ -3773,7 +4428,7 @@
         <v>-99</v>
       </c>
       <c r="BT6" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="BU6">
         <v>-99</v>
@@ -3785,46 +4440,46 @@
         <v>-99</v>
       </c>
       <c r="BX6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="BY6">
         <v>-99</v>
       </c>
       <c r="BZ6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CA6">
         <v>-99</v>
       </c>
       <c r="CB6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CC6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="CD6">
         <v>36</v>
       </c>
       <c r="CE6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="CF6">
         <v>36</v>
       </c>
       <c r="CG6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CH6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CI6">
         <v>-99</v>
       </c>
       <c r="CJ6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CK6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CL6">
         <v>-99</v>
@@ -3833,7 +4488,7 @@
         <v>-99</v>
       </c>
       <c r="CN6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CO6">
         <v>-99</v>
@@ -3854,13 +4509,13 @@
         <v>-99</v>
       </c>
       <c r="CU6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CV6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CW6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CX6">
         <v>-99</v>
@@ -3869,7 +4524,7 @@
         <v>-99</v>
       </c>
       <c r="CZ6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DA6">
         <v>-99</v>
@@ -3896,7 +4551,7 @@
         <v>-99</v>
       </c>
       <c r="DI6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DJ6">
         <v>-99</v>
@@ -3905,19 +4560,19 @@
         <v>-99</v>
       </c>
       <c r="DL6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DM6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DN6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DO6">
         <v>-99</v>
       </c>
       <c r="DP6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DQ6">
         <v>-99</v>
@@ -3929,7 +4584,7 @@
         <v>-99</v>
       </c>
       <c r="DT6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DU6">
         <v>-99</v>
@@ -3941,7 +4596,7 @@
         <v>-99</v>
       </c>
       <c r="DX6" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="DY6">
         <v>-99</v>
@@ -3959,7 +4614,7 @@
         <v>-99</v>
       </c>
       <c r="ED6" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="EE6">
         <v>-99</v>
@@ -3968,7 +4623,7 @@
         <v>-99</v>
       </c>
       <c r="EG6" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EH6">
         <v>-99</v>
@@ -3977,7 +4632,7 @@
         <v>-99</v>
       </c>
       <c r="EJ6" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EK6">
         <v>-99</v>
@@ -3986,7 +4641,7 @@
         <v>-99</v>
       </c>
       <c r="EM6" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="EN6">
         <v>-99</v>
@@ -3995,7 +4650,7 @@
         <v>-99</v>
       </c>
       <c r="EP6" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EQ6">
         <v>-99</v>
@@ -4004,7 +4659,7 @@
         <v>-99</v>
       </c>
       <c r="ES6" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="ET6">
         <v>-99</v>
@@ -4013,7 +4668,7 @@
         <v>-99</v>
       </c>
       <c r="EV6" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="EW6">
         <v>-99</v>
@@ -4031,7 +4686,7 @@
         <v>-99</v>
       </c>
       <c r="FB6" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC6">
         <v>-99</v>
@@ -4040,7 +4695,7 @@
         <v>-99</v>
       </c>
       <c r="FE6" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF6">
         <v>-99</v>
@@ -4054,13 +4709,13 @@
         <v>27123476</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E7">
         <v>-99</v>
@@ -4075,13 +4730,13 @@
         <v>-99</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="J7">
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -4090,16 +4745,16 @@
         <v>-99</v>
       </c>
       <c r="N7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="Q7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R7">
         <v>-99</v>
@@ -4123,7 +4778,7 @@
         <v>-99</v>
       </c>
       <c r="Y7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z7">
         <v>-99</v>
@@ -4150,220 +4805,220 @@
         <v>19</v>
       </c>
       <c r="AH7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT7">
+        <v>-99</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH7">
+        <v>-99</v>
+      </c>
+      <c r="BI7">
+        <v>-99</v>
+      </c>
+      <c r="BJ7">
+        <v>-99</v>
+      </c>
+      <c r="BK7">
+        <v>-99</v>
+      </c>
+      <c r="BL7">
+        <v>-99</v>
+      </c>
+      <c r="BM7">
+        <v>-99</v>
+      </c>
+      <c r="BN7">
+        <v>-99</v>
+      </c>
+      <c r="BO7">
+        <v>-99</v>
+      </c>
+      <c r="BP7">
+        <v>-99</v>
+      </c>
+      <c r="BQ7">
+        <v>-99</v>
+      </c>
+      <c r="BR7">
+        <v>-99</v>
+      </c>
+      <c r="BS7">
+        <v>-99</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU7">
+        <v>-99</v>
+      </c>
+      <c r="BV7">
+        <v>-99</v>
+      </c>
+      <c r="BW7">
+        <v>-99</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY7">
+        <v>-99</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA7">
+        <v>-99</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC7">
+        <v>-99</v>
+      </c>
+      <c r="CD7">
+        <v>-99</v>
+      </c>
+      <c r="CE7">
+        <v>-99</v>
+      </c>
+      <c r="CF7">
+        <v>-99</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH7">
+        <v>-99</v>
+      </c>
+      <c r="CI7">
+        <v>-99</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CL7">
+        <v>-99</v>
+      </c>
+      <c r="CM7">
+        <v>-99</v>
+      </c>
+      <c r="CN7">
+        <v>-99</v>
+      </c>
+      <c r="CO7">
+        <v>-99</v>
+      </c>
+      <c r="CP7">
+        <v>-99</v>
+      </c>
+      <c r="CQ7">
+        <v>-99</v>
+      </c>
+      <c r="CR7">
+        <v>-99</v>
+      </c>
+      <c r="CS7">
+        <v>-99</v>
+      </c>
+      <c r="CT7">
+        <v>-99</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>170</v>
+      </c>
+      <c r="CW7">
+        <v>-99</v>
+      </c>
+      <c r="CX7">
+        <v>-99</v>
+      </c>
+      <c r="CY7">
+        <v>-99</v>
+      </c>
+      <c r="CZ7" t="s">
         <v>192</v>
       </c>
-      <c r="AI7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT7">
-        <v>-99</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>213</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>215</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>202</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>219</v>
-      </c>
-      <c r="BH7">
-        <v>-99</v>
-      </c>
-      <c r="BI7">
-        <v>-99</v>
-      </c>
-      <c r="BJ7">
-        <v>-99</v>
-      </c>
-      <c r="BK7">
-        <v>-99</v>
-      </c>
-      <c r="BL7">
-        <v>-99</v>
-      </c>
-      <c r="BM7">
-        <v>-99</v>
-      </c>
-      <c r="BN7">
-        <v>-99</v>
-      </c>
-      <c r="BO7">
-        <v>-99</v>
-      </c>
-      <c r="BP7">
-        <v>-99</v>
-      </c>
-      <c r="BQ7">
-        <v>-99</v>
-      </c>
-      <c r="BR7">
-        <v>-99</v>
-      </c>
-      <c r="BS7">
-        <v>-99</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU7">
-        <v>-99</v>
-      </c>
-      <c r="BV7">
-        <v>-99</v>
-      </c>
-      <c r="BW7">
-        <v>-99</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BY7">
-        <v>-99</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA7">
-        <v>-99</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC7">
-        <v>-99</v>
-      </c>
-      <c r="CD7">
-        <v>-99</v>
-      </c>
-      <c r="CE7">
-        <v>-99</v>
-      </c>
-      <c r="CF7">
-        <v>-99</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH7">
-        <v>-99</v>
-      </c>
-      <c r="CI7">
-        <v>-99</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL7">
-        <v>-99</v>
-      </c>
-      <c r="CM7">
-        <v>-99</v>
-      </c>
-      <c r="CN7">
-        <v>-99</v>
-      </c>
-      <c r="CO7">
-        <v>-99</v>
-      </c>
-      <c r="CP7">
-        <v>-99</v>
-      </c>
-      <c r="CQ7">
-        <v>-99</v>
-      </c>
-      <c r="CR7">
-        <v>-99</v>
-      </c>
-      <c r="CS7">
-        <v>-99</v>
-      </c>
-      <c r="CT7">
-        <v>-99</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CW7">
-        <v>-99</v>
-      </c>
-      <c r="CX7">
-        <v>-99</v>
-      </c>
-      <c r="CY7">
-        <v>-99</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>220</v>
-      </c>
       <c r="DA7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DB7">
         <v>-99</v>
@@ -4396,10 +5051,10 @@
         <v>-99</v>
       </c>
       <c r="DL7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DM7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DN7">
         <v>-99</v>
@@ -4420,7 +5075,7 @@
         <v>-99</v>
       </c>
       <c r="DT7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DU7">
         <v>-99</v>
@@ -4432,7 +5087,7 @@
         <v>-99</v>
       </c>
       <c r="DX7" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="DY7">
         <v>-99</v>
@@ -4450,64 +5105,64 @@
         <v>-99</v>
       </c>
       <c r="ED7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="EE7" t="s">
+        <v>196</v>
+      </c>
+      <c r="EF7">
+        <v>-99</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>196</v>
+      </c>
+      <c r="EI7">
+        <v>-99</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>196</v>
+      </c>
+      <c r="EL7">
+        <v>-99</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>198</v>
+      </c>
+      <c r="EN7" t="s">
         <v>228</v>
       </c>
-      <c r="EF7">
-        <v>-99</v>
-      </c>
-      <c r="EG7" t="s">
+      <c r="EO7">
+        <v>-99</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>196</v>
+      </c>
+      <c r="ER7">
+        <v>-99</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>200</v>
+      </c>
+      <c r="ET7" t="s">
         <v>229</v>
       </c>
-      <c r="EH7" t="s">
-        <v>228</v>
-      </c>
-      <c r="EI7">
-        <v>-99</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>228</v>
-      </c>
-      <c r="EL7">
-        <v>-99</v>
-      </c>
-      <c r="EM7" t="s">
+      <c r="EU7">
+        <v>-99</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>202</v>
+      </c>
+      <c r="EW7" t="s">
         <v>230</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>232</v>
-      </c>
-      <c r="EO7">
-        <v>-99</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>228</v>
-      </c>
-      <c r="ER7">
-        <v>-99</v>
-      </c>
-      <c r="ES7" t="s">
-        <v>233</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>235</v>
-      </c>
-      <c r="EU7">
-        <v>-99</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>236</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>238</v>
       </c>
       <c r="EX7">
         <v>-99</v>
@@ -4522,7 +5177,7 @@
         <v>-99</v>
       </c>
       <c r="FB7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC7">
         <v>-99</v>
@@ -4531,7 +5186,7 @@
         <v>-99</v>
       </c>
       <c r="FE7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF7">
         <v>-99</v>
@@ -4545,13 +5200,13 @@
         <v>27123476</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E8">
         <v>-99</v>
@@ -4566,13 +5221,13 @@
         <v>-99</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="J8">
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -4581,16 +5236,16 @@
         <v>-99</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O8" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="Q8" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R8">
         <v>-99</v>
@@ -4614,7 +5269,7 @@
         <v>-99</v>
       </c>
       <c r="Y8" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z8">
         <v>-99</v>
@@ -4641,289 +5296,289 @@
         <v>19</v>
       </c>
       <c r="AH8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT8">
+        <v>-99</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV8">
+        <v>-99</v>
+      </c>
+      <c r="AW8">
+        <v>-99</v>
+      </c>
+      <c r="AX8">
+        <v>-99</v>
+      </c>
+      <c r="AY8">
+        <v>-99</v>
+      </c>
+      <c r="AZ8">
+        <v>-99</v>
+      </c>
+      <c r="BA8">
+        <v>-99</v>
+      </c>
+      <c r="BB8">
+        <v>-99</v>
+      </c>
+      <c r="BC8">
+        <v>-99</v>
+      </c>
+      <c r="BD8">
+        <v>-99</v>
+      </c>
+      <c r="BE8">
+        <v>-99</v>
+      </c>
+      <c r="BF8">
+        <v>-99</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH8">
+        <v>-99</v>
+      </c>
+      <c r="BI8">
+        <v>-99</v>
+      </c>
+      <c r="BJ8">
+        <v>-99</v>
+      </c>
+      <c r="BK8">
+        <v>-99</v>
+      </c>
+      <c r="BL8">
+        <v>-99</v>
+      </c>
+      <c r="BM8">
+        <v>-99</v>
+      </c>
+      <c r="BN8">
+        <v>-99</v>
+      </c>
+      <c r="BO8">
+        <v>-99</v>
+      </c>
+      <c r="BP8">
+        <v>-99</v>
+      </c>
+      <c r="BQ8">
+        <v>-99</v>
+      </c>
+      <c r="BR8">
+        <v>-99</v>
+      </c>
+      <c r="BS8">
+        <v>-99</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU8">
+        <v>-99</v>
+      </c>
+      <c r="BV8">
+        <v>-99</v>
+      </c>
+      <c r="BW8">
+        <v>-99</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>170</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CA8">
+        <v>-99</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC8">
+        <v>-99</v>
+      </c>
+      <c r="CD8">
+        <v>-99</v>
+      </c>
+      <c r="CE8">
+        <v>-99</v>
+      </c>
+      <c r="CF8">
+        <v>-99</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH8">
+        <v>-99</v>
+      </c>
+      <c r="CI8">
+        <v>-99</v>
+      </c>
+      <c r="CJ8">
+        <v>-99</v>
+      </c>
+      <c r="CK8">
+        <v>-99</v>
+      </c>
+      <c r="CL8">
+        <v>-99</v>
+      </c>
+      <c r="CM8">
+        <v>-99</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CO8">
+        <v>-99</v>
+      </c>
+      <c r="CP8">
+        <v>-99</v>
+      </c>
+      <c r="CQ8">
+        <v>-99</v>
+      </c>
+      <c r="CR8">
+        <v>-99</v>
+      </c>
+      <c r="CS8">
+        <v>-99</v>
+      </c>
+      <c r="CT8">
+        <v>-99</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>170</v>
+      </c>
+      <c r="CX8">
+        <v>-99</v>
+      </c>
+      <c r="CY8">
+        <v>-99</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA8">
+        <v>-99</v>
+      </c>
+      <c r="DB8">
+        <v>-99</v>
+      </c>
+      <c r="DC8">
+        <v>-99</v>
+      </c>
+      <c r="DD8">
+        <v>-99</v>
+      </c>
+      <c r="DE8">
+        <v>-99</v>
+      </c>
+      <c r="DF8">
+        <v>-99</v>
+      </c>
+      <c r="DG8">
+        <v>-99</v>
+      </c>
+      <c r="DH8">
+        <v>-99</v>
+      </c>
+      <c r="DI8">
+        <v>-99</v>
+      </c>
+      <c r="DJ8">
+        <v>-99</v>
+      </c>
+      <c r="DK8">
+        <v>-99</v>
+      </c>
+      <c r="DL8">
+        <v>-99</v>
+      </c>
+      <c r="DM8">
+        <v>-99</v>
+      </c>
+      <c r="DN8">
+        <v>-99</v>
+      </c>
+      <c r="DO8">
+        <v>-99</v>
+      </c>
+      <c r="DP8">
+        <v>-99</v>
+      </c>
+      <c r="DQ8">
+        <v>-99</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>170</v>
+      </c>
+      <c r="DS8">
+        <v>-99</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU8">
+        <v>-99</v>
+      </c>
+      <c r="DV8">
+        <v>-99</v>
+      </c>
+      <c r="DW8">
+        <v>-99</v>
+      </c>
+      <c r="DX8" t="s">
         <v>192</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>193</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT8">
-        <v>-99</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV8">
-        <v>-99</v>
-      </c>
-      <c r="AW8">
-        <v>-99</v>
-      </c>
-      <c r="AX8">
-        <v>-99</v>
-      </c>
-      <c r="AY8">
-        <v>-99</v>
-      </c>
-      <c r="AZ8">
-        <v>-99</v>
-      </c>
-      <c r="BA8">
-        <v>-99</v>
-      </c>
-      <c r="BB8">
-        <v>-99</v>
-      </c>
-      <c r="BC8">
-        <v>-99</v>
-      </c>
-      <c r="BD8">
-        <v>-99</v>
-      </c>
-      <c r="BE8">
-        <v>-99</v>
-      </c>
-      <c r="BF8">
-        <v>-99</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH8">
-        <v>-99</v>
-      </c>
-      <c r="BI8">
-        <v>-99</v>
-      </c>
-      <c r="BJ8">
-        <v>-99</v>
-      </c>
-      <c r="BK8">
-        <v>-99</v>
-      </c>
-      <c r="BL8">
-        <v>-99</v>
-      </c>
-      <c r="BM8">
-        <v>-99</v>
-      </c>
-      <c r="BN8">
-        <v>-99</v>
-      </c>
-      <c r="BO8">
-        <v>-99</v>
-      </c>
-      <c r="BP8">
-        <v>-99</v>
-      </c>
-      <c r="BQ8">
-        <v>-99</v>
-      </c>
-      <c r="BR8">
-        <v>-99</v>
-      </c>
-      <c r="BS8">
-        <v>-99</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU8">
-        <v>-99</v>
-      </c>
-      <c r="BV8">
-        <v>-99</v>
-      </c>
-      <c r="BW8">
-        <v>-99</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA8">
-        <v>-99</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC8">
-        <v>-99</v>
-      </c>
-      <c r="CD8">
-        <v>-99</v>
-      </c>
-      <c r="CE8">
-        <v>-99</v>
-      </c>
-      <c r="CF8">
-        <v>-99</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH8">
-        <v>-99</v>
-      </c>
-      <c r="CI8">
-        <v>-99</v>
-      </c>
-      <c r="CJ8">
-        <v>-99</v>
-      </c>
-      <c r="CK8">
-        <v>-99</v>
-      </c>
-      <c r="CL8">
-        <v>-99</v>
-      </c>
-      <c r="CM8">
-        <v>-99</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO8">
-        <v>-99</v>
-      </c>
-      <c r="CP8">
-        <v>-99</v>
-      </c>
-      <c r="CQ8">
-        <v>-99</v>
-      </c>
-      <c r="CR8">
-        <v>-99</v>
-      </c>
-      <c r="CS8">
-        <v>-99</v>
-      </c>
-      <c r="CT8">
-        <v>-99</v>
-      </c>
-      <c r="CU8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>190</v>
-      </c>
-      <c r="CX8">
-        <v>-99</v>
-      </c>
-      <c r="CY8">
-        <v>-99</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DA8">
-        <v>-99</v>
-      </c>
-      <c r="DB8">
-        <v>-99</v>
-      </c>
-      <c r="DC8">
-        <v>-99</v>
-      </c>
-      <c r="DD8">
-        <v>-99</v>
-      </c>
-      <c r="DE8">
-        <v>-99</v>
-      </c>
-      <c r="DF8">
-        <v>-99</v>
-      </c>
-      <c r="DG8">
-        <v>-99</v>
-      </c>
-      <c r="DH8">
-        <v>-99</v>
-      </c>
-      <c r="DI8">
-        <v>-99</v>
-      </c>
-      <c r="DJ8">
-        <v>-99</v>
-      </c>
-      <c r="DK8">
-        <v>-99</v>
-      </c>
-      <c r="DL8">
-        <v>-99</v>
-      </c>
-      <c r="DM8">
-        <v>-99</v>
-      </c>
-      <c r="DN8">
-        <v>-99</v>
-      </c>
-      <c r="DO8">
-        <v>-99</v>
-      </c>
-      <c r="DP8">
-        <v>-99</v>
-      </c>
-      <c r="DQ8">
-        <v>-99</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DS8">
-        <v>-99</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU8">
-        <v>-99</v>
-      </c>
-      <c r="DV8">
-        <v>-99</v>
-      </c>
-      <c r="DW8">
-        <v>-99</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>220</v>
       </c>
       <c r="DY8">
         <v>-99</v>
@@ -4941,7 +5596,7 @@
         <v>-99</v>
       </c>
       <c r="ED8" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="EE8">
         <v>-99</v>
@@ -4950,7 +5605,7 @@
         <v>-99</v>
       </c>
       <c r="EG8" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EH8">
         <v>-99</v>
@@ -4959,7 +5614,7 @@
         <v>-99</v>
       </c>
       <c r="EJ8" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EK8">
         <v>-99</v>
@@ -4968,7 +5623,7 @@
         <v>-99</v>
       </c>
       <c r="EM8" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="EN8">
         <v>-99</v>
@@ -4977,7 +5632,7 @@
         <v>-99</v>
       </c>
       <c r="EP8" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="EQ8">
         <v>-99</v>
@@ -4986,7 +5641,7 @@
         <v>-99</v>
       </c>
       <c r="ES8" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="ET8">
         <v>-99</v>
@@ -4995,7 +5650,7 @@
         <v>-99</v>
       </c>
       <c r="EV8" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="EW8">
         <v>-99</v>
@@ -5013,7 +5668,7 @@
         <v>-99</v>
       </c>
       <c r="FB8" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC8">
         <v>-99</v>
@@ -5022,7 +5677,7 @@
         <v>-99</v>
       </c>
       <c r="FE8" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF8">
         <v>-99</v>
@@ -5036,13 +5691,13 @@
         <v>31785030</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="E9">
         <v>-99</v>
@@ -5057,13 +5712,13 @@
         <v>-99</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L9">
         <v>-99</v>
@@ -5072,19 +5727,19 @@
         <v>-99</v>
       </c>
       <c r="N9" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="S9">
         <v>-99</v>
@@ -5105,7 +5760,7 @@
         <v>-99</v>
       </c>
       <c r="Y9" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z9">
         <v>59</v>
@@ -5132,82 +5787,82 @@
         <v>19</v>
       </c>
       <c r="AH9" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI9" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK9" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="AL9" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AM9" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="AN9" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="AO9" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="AP9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AQ9" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AR9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="AS9" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="AT9">
         <v>-99</v>
       </c>
       <c r="AU9" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="AV9" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AW9" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AX9" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AY9" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AZ9" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="BA9" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BB9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="BC9" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="BD9" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="BE9" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="BF9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="BG9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="BH9">
         <v>-99</v>
@@ -5246,7 +5901,7 @@
         <v>-99</v>
       </c>
       <c r="BT9" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="BU9">
         <v>-99</v>
@@ -5264,13 +5919,13 @@
         <v>-99</v>
       </c>
       <c r="BZ9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CA9">
         <v>-99</v>
       </c>
       <c r="CB9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CC9">
         <v>-99</v>
@@ -5285,19 +5940,19 @@
         <v>-99</v>
       </c>
       <c r="CG9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CH9">
         <v>-99</v>
       </c>
       <c r="CI9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CJ9">
         <v>-99</v>
       </c>
       <c r="CK9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CL9">
         <v>-99</v>
@@ -5306,7 +5961,7 @@
         <v>-99</v>
       </c>
       <c r="CN9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="CO9">
         <v>-99</v>
@@ -5390,19 +6045,19 @@
         <v>-99</v>
       </c>
       <c r="DP9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DQ9">
         <v>-99</v>
       </c>
       <c r="DR9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DS9">
         <v>-99</v>
       </c>
       <c r="DT9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="DU9">
         <v>-99</v>
@@ -5432,64 +6087,64 @@
         <v>-99</v>
       </c>
       <c r="ED9" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="EE9" t="s">
+        <v>196</v>
+      </c>
+      <c r="EF9">
+        <v>-99</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>197</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>196</v>
+      </c>
+      <c r="EI9">
+        <v>-99</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>196</v>
+      </c>
+      <c r="EL9">
+        <v>-99</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>198</v>
+      </c>
+      <c r="EN9" t="s">
         <v>228</v>
       </c>
-      <c r="EF9">
-        <v>-99</v>
-      </c>
-      <c r="EG9" t="s">
+      <c r="EO9">
+        <v>-99</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>196</v>
+      </c>
+      <c r="ER9">
+        <v>-99</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>200</v>
+      </c>
+      <c r="ET9" t="s">
         <v>229</v>
       </c>
-      <c r="EH9" t="s">
-        <v>228</v>
-      </c>
-      <c r="EI9">
-        <v>-99</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>228</v>
-      </c>
-      <c r="EL9">
-        <v>-99</v>
-      </c>
-      <c r="EM9" t="s">
+      <c r="EU9">
+        <v>-99</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>202</v>
+      </c>
+      <c r="EW9" t="s">
         <v>230</v>
-      </c>
-      <c r="EN9" t="s">
-        <v>232</v>
-      </c>
-      <c r="EO9">
-        <v>-99</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>228</v>
-      </c>
-      <c r="ER9">
-        <v>-99</v>
-      </c>
-      <c r="ES9" t="s">
-        <v>233</v>
-      </c>
-      <c r="ET9" t="s">
-        <v>235</v>
-      </c>
-      <c r="EU9">
-        <v>-99</v>
-      </c>
-      <c r="EV9" t="s">
-        <v>236</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>238</v>
       </c>
       <c r="EX9">
         <v>-99</v>
@@ -5504,7 +6159,7 @@
         <v>-99</v>
       </c>
       <c r="FB9" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC9">
         <v>-99</v>
@@ -5513,7 +6168,7 @@
         <v>-99</v>
       </c>
       <c r="FE9" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF9">
         <v>-99</v>
@@ -5527,10 +6182,10 @@
         <v>36087397</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="D10">
         <v>-99</v>
@@ -5548,13 +6203,13 @@
         <v>-99</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="J10">
         <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L10">
         <v>-99</v>
@@ -5563,16 +6218,16 @@
         <v>-99</v>
       </c>
       <c r="N10" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="P10">
         <v>-99</v>
       </c>
       <c r="Q10" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="R10">
         <v>-99</v>
@@ -5596,7 +6251,7 @@
         <v>-99</v>
       </c>
       <c r="Y10" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="Z10">
         <v>-99</v>
@@ -5623,353 +6278,353 @@
         <v>19</v>
       </c>
       <c r="AH10" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="AI10" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AJ10" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AK10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT10">
+        <v>-99</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AV10">
+        <v>-99</v>
+      </c>
+      <c r="AW10">
+        <v>-99</v>
+      </c>
+      <c r="AX10">
+        <v>-99</v>
+      </c>
+      <c r="AY10">
+        <v>-99</v>
+      </c>
+      <c r="AZ10">
+        <v>-99</v>
+      </c>
+      <c r="BA10">
+        <v>-99</v>
+      </c>
+      <c r="BB10">
+        <v>-99</v>
+      </c>
+      <c r="BC10">
+        <v>-99</v>
+      </c>
+      <c r="BD10">
+        <v>-99</v>
+      </c>
+      <c r="BE10">
+        <v>-99</v>
+      </c>
+      <c r="BF10">
+        <v>-99</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH10">
+        <v>-99</v>
+      </c>
+      <c r="BI10">
+        <v>-99</v>
+      </c>
+      <c r="BJ10">
+        <v>-99</v>
+      </c>
+      <c r="BK10">
+        <v>-99</v>
+      </c>
+      <c r="BL10">
+        <v>-99</v>
+      </c>
+      <c r="BM10">
+        <v>-99</v>
+      </c>
+      <c r="BN10">
+        <v>-99</v>
+      </c>
+      <c r="BO10">
+        <v>-99</v>
+      </c>
+      <c r="BP10">
+        <v>-99</v>
+      </c>
+      <c r="BQ10">
+        <v>-99</v>
+      </c>
+      <c r="BR10">
+        <v>-99</v>
+      </c>
+      <c r="BS10">
+        <v>-99</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BU10">
+        <v>-99</v>
+      </c>
+      <c r="BV10">
+        <v>-99</v>
+      </c>
+      <c r="BW10">
+        <v>-99</v>
+      </c>
+      <c r="BX10">
+        <v>-99</v>
+      </c>
+      <c r="BY10">
+        <v>-99</v>
+      </c>
+      <c r="BZ10">
+        <v>-99</v>
+      </c>
+      <c r="CA10">
+        <v>-99</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CC10">
+        <v>-99</v>
+      </c>
+      <c r="CD10">
+        <v>-99</v>
+      </c>
+      <c r="CE10">
+        <v>-99</v>
+      </c>
+      <c r="CF10">
+        <v>-99</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH10">
+        <v>-99</v>
+      </c>
+      <c r="CI10">
+        <v>-99</v>
+      </c>
+      <c r="CJ10">
+        <v>-99</v>
+      </c>
+      <c r="CK10">
+        <v>-99</v>
+      </c>
+      <c r="CL10">
+        <v>-99</v>
+      </c>
+      <c r="CM10">
+        <v>-99</v>
+      </c>
+      <c r="CN10">
+        <v>-99</v>
+      </c>
+      <c r="CO10">
+        <v>-99</v>
+      </c>
+      <c r="CP10">
+        <v>-99</v>
+      </c>
+      <c r="CQ10">
+        <v>-99</v>
+      </c>
+      <c r="CR10">
+        <v>-99</v>
+      </c>
+      <c r="CS10">
+        <v>-99</v>
+      </c>
+      <c r="CT10">
+        <v>-99</v>
+      </c>
+      <c r="CU10">
+        <v>-99</v>
+      </c>
+      <c r="CV10">
+        <v>-99</v>
+      </c>
+      <c r="CW10">
+        <v>-99</v>
+      </c>
+      <c r="CX10">
+        <v>-99</v>
+      </c>
+      <c r="CY10">
+        <v>-99</v>
+      </c>
+      <c r="CZ10">
+        <v>-99</v>
+      </c>
+      <c r="DA10">
+        <v>-99</v>
+      </c>
+      <c r="DB10">
+        <v>-99</v>
+      </c>
+      <c r="DC10">
+        <v>-99</v>
+      </c>
+      <c r="DD10">
+        <v>-99</v>
+      </c>
+      <c r="DE10">
+        <v>-99</v>
+      </c>
+      <c r="DF10">
+        <v>-99</v>
+      </c>
+      <c r="DG10">
+        <v>-99</v>
+      </c>
+      <c r="DH10">
+        <v>-99</v>
+      </c>
+      <c r="DI10">
+        <v>-99</v>
+      </c>
+      <c r="DJ10">
+        <v>-99</v>
+      </c>
+      <c r="DK10">
+        <v>-99</v>
+      </c>
+      <c r="DL10">
+        <v>-99</v>
+      </c>
+      <c r="DM10">
+        <v>-99</v>
+      </c>
+      <c r="DN10">
+        <v>-99</v>
+      </c>
+      <c r="DO10">
+        <v>-99</v>
+      </c>
+      <c r="DP10">
+        <v>-99</v>
+      </c>
+      <c r="DQ10">
+        <v>-99</v>
+      </c>
+      <c r="DR10">
+        <v>-99</v>
+      </c>
+      <c r="DS10">
+        <v>-99</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU10">
+        <v>-99</v>
+      </c>
+      <c r="DV10">
+        <v>-99</v>
+      </c>
+      <c r="DW10">
+        <v>-99</v>
+      </c>
+      <c r="DX10">
+        <v>-99</v>
+      </c>
+      <c r="DY10">
+        <v>-99</v>
+      </c>
+      <c r="DZ10">
+        <v>-99</v>
+      </c>
+      <c r="EA10">
+        <v>-99</v>
+      </c>
+      <c r="EB10">
+        <v>-99</v>
+      </c>
+      <c r="EC10">
+        <v>-99</v>
+      </c>
+      <c r="ED10" t="s">
         <v>195</v>
       </c>
-      <c r="AL10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM10" t="s">
+      <c r="EE10">
+        <v>-99</v>
+      </c>
+      <c r="EF10">
+        <v>-99</v>
+      </c>
+      <c r="EG10" t="s">
         <v>197</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="EH10">
+        <v>-99</v>
+      </c>
+      <c r="EI10">
+        <v>-99</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>197</v>
+      </c>
+      <c r="EK10">
+        <v>-99</v>
+      </c>
+      <c r="EL10">
+        <v>-99</v>
+      </c>
+      <c r="EM10" t="s">
         <v>198</v>
       </c>
-      <c r="AO10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="EN10">
+        <v>-99</v>
+      </c>
+      <c r="EO10">
+        <v>-99</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>197</v>
+      </c>
+      <c r="EQ10">
+        <v>-99</v>
+      </c>
+      <c r="ER10">
+        <v>-99</v>
+      </c>
+      <c r="ES10" t="s">
         <v>200</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT10">
-        <v>-99</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV10">
-        <v>-99</v>
-      </c>
-      <c r="AW10">
-        <v>-99</v>
-      </c>
-      <c r="AX10">
-        <v>-99</v>
-      </c>
-      <c r="AY10">
-        <v>-99</v>
-      </c>
-      <c r="AZ10">
-        <v>-99</v>
-      </c>
-      <c r="BA10">
-        <v>-99</v>
-      </c>
-      <c r="BB10">
-        <v>-99</v>
-      </c>
-      <c r="BC10">
-        <v>-99</v>
-      </c>
-      <c r="BD10">
-        <v>-99</v>
-      </c>
-      <c r="BE10">
-        <v>-99</v>
-      </c>
-      <c r="BF10">
-        <v>-99</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH10">
-        <v>-99</v>
-      </c>
-      <c r="BI10">
-        <v>-99</v>
-      </c>
-      <c r="BJ10">
-        <v>-99</v>
-      </c>
-      <c r="BK10">
-        <v>-99</v>
-      </c>
-      <c r="BL10">
-        <v>-99</v>
-      </c>
-      <c r="BM10">
-        <v>-99</v>
-      </c>
-      <c r="BN10">
-        <v>-99</v>
-      </c>
-      <c r="BO10">
-        <v>-99</v>
-      </c>
-      <c r="BP10">
-        <v>-99</v>
-      </c>
-      <c r="BQ10">
-        <v>-99</v>
-      </c>
-      <c r="BR10">
-        <v>-99</v>
-      </c>
-      <c r="BS10">
-        <v>-99</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU10">
-        <v>-99</v>
-      </c>
-      <c r="BV10">
-        <v>-99</v>
-      </c>
-      <c r="BW10">
-        <v>-99</v>
-      </c>
-      <c r="BX10">
-        <v>-99</v>
-      </c>
-      <c r="BY10">
-        <v>-99</v>
-      </c>
-      <c r="BZ10">
-        <v>-99</v>
-      </c>
-      <c r="CA10">
-        <v>-99</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC10">
-        <v>-99</v>
-      </c>
-      <c r="CD10">
-        <v>-99</v>
-      </c>
-      <c r="CE10">
-        <v>-99</v>
-      </c>
-      <c r="CF10">
-        <v>-99</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH10">
-        <v>-99</v>
-      </c>
-      <c r="CI10">
-        <v>-99</v>
-      </c>
-      <c r="CJ10">
-        <v>-99</v>
-      </c>
-      <c r="CK10">
-        <v>-99</v>
-      </c>
-      <c r="CL10">
-        <v>-99</v>
-      </c>
-      <c r="CM10">
-        <v>-99</v>
-      </c>
-      <c r="CN10">
-        <v>-99</v>
-      </c>
-      <c r="CO10">
-        <v>-99</v>
-      </c>
-      <c r="CP10">
-        <v>-99</v>
-      </c>
-      <c r="CQ10">
-        <v>-99</v>
-      </c>
-      <c r="CR10">
-        <v>-99</v>
-      </c>
-      <c r="CS10">
-        <v>-99</v>
-      </c>
-      <c r="CT10">
-        <v>-99</v>
-      </c>
-      <c r="CU10">
-        <v>-99</v>
-      </c>
-      <c r="CV10">
-        <v>-99</v>
-      </c>
-      <c r="CW10">
-        <v>-99</v>
-      </c>
-      <c r="CX10">
-        <v>-99</v>
-      </c>
-      <c r="CY10">
-        <v>-99</v>
-      </c>
-      <c r="CZ10">
-        <v>-99</v>
-      </c>
-      <c r="DA10">
-        <v>-99</v>
-      </c>
-      <c r="DB10">
-        <v>-99</v>
-      </c>
-      <c r="DC10">
-        <v>-99</v>
-      </c>
-      <c r="DD10">
-        <v>-99</v>
-      </c>
-      <c r="DE10">
-        <v>-99</v>
-      </c>
-      <c r="DF10">
-        <v>-99</v>
-      </c>
-      <c r="DG10">
-        <v>-99</v>
-      </c>
-      <c r="DH10">
-        <v>-99</v>
-      </c>
-      <c r="DI10">
-        <v>-99</v>
-      </c>
-      <c r="DJ10">
-        <v>-99</v>
-      </c>
-      <c r="DK10">
-        <v>-99</v>
-      </c>
-      <c r="DL10">
-        <v>-99</v>
-      </c>
-      <c r="DM10">
-        <v>-99</v>
-      </c>
-      <c r="DN10">
-        <v>-99</v>
-      </c>
-      <c r="DO10">
-        <v>-99</v>
-      </c>
-      <c r="DP10">
-        <v>-99</v>
-      </c>
-      <c r="DQ10">
-        <v>-99</v>
-      </c>
-      <c r="DR10">
-        <v>-99</v>
-      </c>
-      <c r="DS10">
-        <v>-99</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>190</v>
-      </c>
-      <c r="DU10">
-        <v>-99</v>
-      </c>
-      <c r="DV10">
-        <v>-99</v>
-      </c>
-      <c r="DW10">
-        <v>-99</v>
-      </c>
-      <c r="DX10">
-        <v>-99</v>
-      </c>
-      <c r="DY10">
-        <v>-99</v>
-      </c>
-      <c r="DZ10">
-        <v>-99</v>
-      </c>
-      <c r="EA10">
-        <v>-99</v>
-      </c>
-      <c r="EB10">
-        <v>-99</v>
-      </c>
-      <c r="EC10">
-        <v>-99</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE10">
-        <v>-99</v>
-      </c>
-      <c r="EF10">
-        <v>-99</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>229</v>
-      </c>
-      <c r="EH10">
-        <v>-99</v>
-      </c>
-      <c r="EI10">
-        <v>-99</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>229</v>
-      </c>
-      <c r="EK10">
-        <v>-99</v>
-      </c>
-      <c r="EL10">
-        <v>-99</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>230</v>
-      </c>
-      <c r="EN10">
-        <v>-99</v>
-      </c>
-      <c r="EO10">
-        <v>-99</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>229</v>
-      </c>
-      <c r="EQ10">
-        <v>-99</v>
-      </c>
-      <c r="ER10">
-        <v>-99</v>
-      </c>
-      <c r="ES10" t="s">
-        <v>233</v>
-      </c>
       <c r="ET10">
         <v>-99</v>
       </c>
@@ -5977,7 +6632,7 @@
         <v>-99</v>
       </c>
       <c r="EV10" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="EW10">
         <v>-99</v>
@@ -5995,7 +6650,7 @@
         <v>-99</v>
       </c>
       <c r="FB10" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="FC10">
         <v>-99</v>
@@ -6004,7 +6659,7 @@
         <v>-99</v>
       </c>
       <c r="FE10" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="FF10">
         <v>-99</v>
@@ -6015,5 +6670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>